--- a/API_v1.6.xlsx
+++ b/API_v1.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choiwonjun/Desktop/workspace/contest/2022 CJ/CJ-Delivery-Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7B5FCF-B82C-634A-A257-8F8FF6F4268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231C95E4-FAA5-EA48-9423-97276D07B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="2" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="3" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="258">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3192,7 +3192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F2CF10-5B5D-D44C-AF3E-D7DDEAA76FEB}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3397,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF627A-0305-2646-9B0C-D3CC9DB19EAA}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3808,16 +3808,16 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5</v>
+        <v>189</v>
+      </c>
+      <c r="E32" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -3825,276 +3825,135 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="4">
-        <v>6</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="C36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="A36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="C38" t="s">
-        <v>109</v>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="C39" t="s">
-        <v>110</v>
+      <c r="A39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" t="s">
-        <v>131</v>
+        <v>82</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="C41" t="s">
-        <v>112</v>
+      <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
+        <v>189</v>
+      </c>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="C42" t="s">
-        <v>113</v>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" t="s">
-        <v>138</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="C43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3"/>

--- a/API_v1.6.xlsx
+++ b/API_v1.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choiwonjun/Desktop/workspace/contest/2022 CJ/CJ-Delivery-Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231C95E4-FAA5-EA48-9423-97276D07B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B4043-8920-3549-94B5-804698DD3A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="3" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="1" xr2:uid="{1E341517-BC11-234E-82B8-F5E49E08D4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="265">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1041,6 +1041,34 @@
   </si>
   <si>
     <t>터미널 경위도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seatNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,3,3,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 고유 Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품의 좌석 위치 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,로 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,로 구분 deliveryPK와 순서 일치 해야함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1141,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1132,6 +1160,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1147,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,6 +1222,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1843,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD53461-2E64-A94A-A7F3-2763593D7F81}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2658,67 +2695,74 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="G72" s="6"/>
+      <c r="C72" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="6" t="s">
+      <c r="C73" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="6" t="b">
+      <c r="E75" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6" t="s">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="6" t="s">
+      <c r="D76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2727,460 +2771,481 @@
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="6"/>
+      <c r="A78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="B79" s="6"/>
-      <c r="C79" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="C80" t="s">
+      <c r="C80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" t="s">
         <v>164</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
         <v>28</v>
       </c>
-      <c r="E80">
+      <c r="E82">
         <v>20</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F82" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="6" t="s">
+    <row r="83" spans="1:7">
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6" t="s">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="6" t="b">
+      <c r="E84" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F84" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6" t="s">
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="D85" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="5" t="s">
+      <c r="G85" s="6"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5" t="s">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="6" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" s="6">
-        <v>1</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="6" t="s">
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E91">
+      <c r="E93">
         <v>1</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="C92" s="6" t="s">
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="C94" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D94" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
         <v>37</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F94" t="s">
         <v>52</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G94" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="C93" t="s">
-        <v>58</v>
-      </c>
-      <c r="D93" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93">
-        <v>20220515</v>
-      </c>
-      <c r="F93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="C94" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" t="s">
-        <v>63</v>
-      </c>
-      <c r="E94" t="s">
-        <v>41</v>
-      </c>
-      <c r="F94" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="C95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>63</v>
-      </c>
-      <c r="E95" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="E95">
+        <v>20220515</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="C96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="3:7">
       <c r="C97" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="C98" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="C99" t="s">
         <v>62</v>
       </c>
-      <c r="D97" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
         <v>49</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F99" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7">
-      <c r="C98" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" s="8">
-        <v>2</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="3:7">
-      <c r="C99" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="100" spans="3:7">
       <c r="C100" s="6" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E100">
-        <v>4</v>
+      <c r="E100" s="8">
+        <v>2</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>173</v>
+        <v>144</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="3:7">
       <c r="C101" s="6" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>175</v>
+        <v>149</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="3:7">
       <c r="C102" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E102">
-        <v>9000</v>
+        <v>4</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="3:7">
       <c r="C103" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" t="s">
-        <v>180</v>
-      </c>
-      <c r="F103" t="s">
-        <v>179</v>
+        <v>28</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="3:7">
       <c r="C104" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" t="s">
-        <v>182</v>
-      </c>
-      <c r="F104" t="s">
-        <v>183</v>
+        <v>28</v>
+      </c>
+      <c r="E104">
+        <v>9000</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="3:7">
       <c r="C105" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="C106" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" t="s">
+        <v>182</v>
+      </c>
+      <c r="F106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="C107" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D107" s="6" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="106" spans="3:7">
-      <c r="C106" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="3:7">
-      <c r="C107" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" t="s">
-        <v>16</v>
-      </c>
-      <c r="E107" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="108" spans="3:7">
       <c r="C108" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108" t="s">
-        <v>75</v>
+        <v>28</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="3:7">
       <c r="C109" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="3:7">
       <c r="C110" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>75</v>
+      </c>
+      <c r="F110" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7">
+      <c r="C111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7">
+      <c r="C112" t="s">
         <v>185</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>117</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E112" t="s">
         <v>131</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F112" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="111" spans="3:7">
-      <c r="E111" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3193,7 +3258,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3397,7 +3462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF627A-0305-2646-9B0C-D3CC9DB19EAA}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -3989,7 +4054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3A91A3-BD00-C145-9327-5DFA20C11CF3}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
